--- a/data/trans_orig/P44C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24AFDA5-9D0F-4A5E-B3FB-EAA31A2F2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB91B4D2-DB0E-4429-851E-3BF61F1602EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E955FAE-D1DB-4C03-AD4D-AEB142B04E07}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D30D0A2D-9191-4F3A-A95C-6899962D9762}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="783">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -100,2302 +100,2293 @@
     <t>5,47%</t>
   </si>
   <si>
-    <t>26,97%</t>
+    <t>22,06%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE613F5-280D-4F37-B8E4-412E85933141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7D4D68-F08B-4F09-810D-A4A9FC1150EE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3484,10 +3475,10 @@
         <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -3496,13 +3487,13 @@
         <v>6205</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3508,13 @@
         <v>8176</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3532,13 +3523,13 @@
         <v>6059</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3547,13 +3538,13 @@
         <v>14235</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3559,13 @@
         <v>1043</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3583,13 +3574,13 @@
         <v>1048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3598,13 +3589,13 @@
         <v>2091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3651,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3672,13 +3663,13 @@
         <v>3384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3687,13 +3678,13 @@
         <v>956</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3702,13 +3693,13 @@
         <v>4340</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3714,13 @@
         <v>1988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3738,13 +3729,13 @@
         <v>9897</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3753,13 +3744,13 @@
         <v>11886</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3765,13 @@
         <v>7028</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -3789,13 +3780,13 @@
         <v>9830</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -3804,13 +3795,13 @@
         <v>16858</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3816,13 @@
         <v>4458</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3840,13 +3831,13 @@
         <v>5086</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3855,13 +3846,13 @@
         <v>9544</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,7 +3908,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3935,7 +3926,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3950,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3980,13 +3971,13 @@
         <v>1035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3995,13 +3986,13 @@
         <v>2133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4010,13 +4001,13 @@
         <v>3167</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4022,13 @@
         <v>3145</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4046,13 +4037,13 @@
         <v>3378</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4061,13 +4052,13 @@
         <v>6523</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4073,13 @@
         <v>2119</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -4097,13 +4088,13 @@
         <v>1055</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -4112,13 +4103,13 @@
         <v>3174</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4165,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4192,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4207,7 +4198,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4222,7 +4213,7 @@
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4228,13 @@
         <v>5080</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4252,13 +4243,13 @@
         <v>1056</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -4267,13 +4258,13 @@
         <v>6136</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4279,13 @@
         <v>4137</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4303,13 +4294,13 @@
         <v>4189</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -4318,13 +4309,13 @@
         <v>8326</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4330,13 @@
         <v>1054</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4354,13 +4345,13 @@
         <v>1046</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4369,13 +4360,13 @@
         <v>2101</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4422,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4443,13 +4434,13 @@
         <v>2032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4458,13 +4449,13 @@
         <v>4272</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -4473,13 +4464,13 @@
         <v>6304</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4485,13 @@
         <v>5133</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -4509,13 +4500,13 @@
         <v>6453</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -4524,13 +4515,13 @@
         <v>11586</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4536,13 @@
         <v>8427</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -4560,13 +4551,13 @@
         <v>5100</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -4575,13 +4566,13 @@
         <v>13527</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4587,13 @@
         <v>2382</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4611,13 +4602,13 @@
         <v>6839</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -4626,13 +4617,13 @@
         <v>9220</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,7 +4679,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4706,7 +4697,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -4721,7 +4712,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -4736,7 +4727,7 @@
         <v>17</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4742,13 @@
         <v>7511</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -4766,13 +4757,13 @@
         <v>2202</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -4781,13 +4772,13 @@
         <v>9713</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4793,13 @@
         <v>17124</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -4817,13 +4808,13 @@
         <v>8418</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -4832,13 +4823,13 @@
         <v>25542</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4844,13 @@
         <v>2218</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -4868,13 +4859,13 @@
         <v>4425</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -4883,13 +4874,13 @@
         <v>6643</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4948,13 @@
         <v>5416</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -4972,13 +4963,13 @@
         <v>6346</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -4987,13 +4978,13 @@
         <v>11761</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +4999,13 @@
         <v>28142</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H45" s="7">
         <v>34</v>
@@ -5023,13 +5014,13 @@
         <v>36677</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M45" s="7">
         <v>58</v>
@@ -5038,13 +5029,13 @@
         <v>64819</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5050,13 @@
         <v>62656</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H46" s="7">
         <v>42</v>
@@ -5074,13 +5065,13 @@
         <v>45545</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M46" s="7">
         <v>97</v>
@@ -5089,13 +5080,13 @@
         <v>108201</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5101,13 @@
         <v>15373</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H47" s="7">
         <v>19</v>
@@ -5125,13 +5116,13 @@
         <v>21494</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
@@ -5140,13 +5131,13 @@
         <v>36867</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5193,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BBC99F-F74A-4923-B6DA-37BC1C9E0E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A55F593-A1BE-4882-8C3C-2108F0CB9C69}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5243,7 +5234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5350,13 +5341,13 @@
         <v>3892</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5365,13 +5356,13 @@
         <v>1126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5380,13 +5371,13 @@
         <v>5018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5392,13 @@
         <v>9921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5416,13 +5407,13 @@
         <v>5956</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5431,13 +5422,13 @@
         <v>15877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5443,13 @@
         <v>4465</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5467,13 +5458,13 @@
         <v>7136</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -5482,13 +5473,13 @@
         <v>11601</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5494,13 @@
         <v>5092</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5518,13 +5509,13 @@
         <v>1819</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5533,13 +5524,13 @@
         <v>6911</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,7 +5604,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5628,7 +5619,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5643,7 +5634,7 @@
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5649,13 @@
         <v>2813</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5673,13 +5664,13 @@
         <v>2456</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5688,13 +5679,13 @@
         <v>5269</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5700,13 @@
         <v>6489</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5724,13 +5715,13 @@
         <v>2024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -5739,13 +5730,13 @@
         <v>8513</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5751,13 @@
         <v>1903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5775,13 +5766,13 @@
         <v>2251</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5790,13 +5781,13 @@
         <v>4154</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5855,13 @@
         <v>1927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5879,13 +5870,13 @@
         <v>1233</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5894,13 +5885,13 @@
         <v>3160</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5906,13 @@
         <v>868</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5930,13 +5921,13 @@
         <v>997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -5945,13 +5936,13 @@
         <v>1865</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5957,13 @@
         <v>15064</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5981,13 +5972,13 @@
         <v>15801</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -5996,13 +5987,13 @@
         <v>30865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6008,13 @@
         <v>1639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6032,13 +6023,13 @@
         <v>991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -6047,13 +6038,13 @@
         <v>2630</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6100,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6121,13 +6112,13 @@
         <v>827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6136,13 +6127,13 @@
         <v>2268</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6151,13 +6142,13 @@
         <v>3096</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6163,13 @@
         <v>7428</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -6187,13 +6178,13 @@
         <v>5868</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -6202,13 +6193,13 @@
         <v>13296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6214,13 @@
         <v>11516</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -6238,13 +6229,13 @@
         <v>11080</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -6253,13 +6244,13 @@
         <v>22597</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6265,13 @@
         <v>6066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6295,7 +6286,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -6304,13 +6295,13 @@
         <v>6066</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6357,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6378,13 +6369,13 @@
         <v>989</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6399,7 +6390,7 @@
         <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6408,13 +6399,13 @@
         <v>989</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6426,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6444,13 +6435,13 @@
         <v>1052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6459,13 +6450,13 @@
         <v>1053</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6471,13 @@
         <v>1983</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6495,13 +6486,13 @@
         <v>2937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -6510,13 +6501,13 @@
         <v>4919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,7 +6528,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6552,7 +6543,7 @@
         <v>17</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6567,7 +6558,7 @@
         <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,7 +6614,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6641,7 +6632,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6671,7 +6662,7 @@
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6677,13 @@
         <v>1599</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6701,13 +6692,13 @@
         <v>4535</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -6716,13 +6707,13 @@
         <v>6134</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6728,13 @@
         <v>4673</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -6752,13 +6743,13 @@
         <v>4070</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -6767,13 +6758,13 @@
         <v>8742</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6779,13 @@
         <v>4115</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6818,13 +6809,13 @@
         <v>4115</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6871,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6892,13 +6883,13 @@
         <v>3114</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6913,7 +6904,7 @@
         <v>17</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6922,13 +6913,13 @@
         <v>3114</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>82</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6934,13 @@
         <v>7481</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -6958,13 +6949,13 @@
         <v>8268</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -6973,13 +6964,13 @@
         <v>15749</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6985,13 @@
         <v>22734</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -7009,13 +7000,13 @@
         <v>13837</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -7024,13 +7015,13 @@
         <v>36572</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7036,13 @@
         <v>7888</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -7060,13 +7051,13 @@
         <v>6093</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -7075,13 +7066,13 @@
         <v>13981</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,7 +7128,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7149,13 +7140,13 @@
         <v>1060</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -7164,13 +7155,13 @@
         <v>1080</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -7179,13 +7170,13 @@
         <v>2139</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>347</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,7 +7197,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -7215,13 +7206,13 @@
         <v>4676</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -7230,13 +7221,13 @@
         <v>4675</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>450</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7242,13 @@
         <v>21174</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -7266,13 +7257,13 @@
         <v>3147</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M41" s="7">
         <v>21</v>
@@ -7281,13 +7272,13 @@
         <v>24321</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7293,13 @@
         <v>4173</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -7317,13 +7308,13 @@
         <v>4568</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -7332,13 +7323,13 @@
         <v>8741</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7397,13 @@
         <v>11809</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -7421,13 +7412,13 @@
         <v>5707</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M44" s="7">
         <v>16</v>
@@ -7436,13 +7427,13 @@
         <v>17516</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7448,13 @@
         <v>30111</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H45" s="7">
         <v>29</v>
@@ -7472,13 +7463,13 @@
         <v>33808</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M45" s="7">
         <v>60</v>
@@ -7487,13 +7478,13 @@
         <v>63919</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,13 +7499,13 @@
         <v>88097</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H46" s="7">
         <v>52</v>
@@ -7526,10 +7517,10 @@
         <v>38</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M46" s="7">
         <v>136</v>
@@ -7538,13 +7529,13 @@
         <v>148129</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,13 +7550,13 @@
         <v>30875</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -7574,13 +7565,13 @@
         <v>15723</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>223</v>
+        <v>495</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M47" s="7">
         <v>42</v>
@@ -7589,13 +7580,13 @@
         <v>46598</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,7 +7642,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7675,7 +7666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926A69E9-B75F-4EA3-943D-423119AF02BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83EED5-24D0-4AF3-BA6C-DF0459133692}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7692,7 +7683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7799,13 +7790,13 @@
         <v>1530</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -7814,13 +7805,13 @@
         <v>1518</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>508</v>
+        <v>24</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -7829,13 +7820,13 @@
         <v>3048</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7841,13 @@
         <v>29916</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -7865,13 +7856,13 @@
         <v>18435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M5" s="7">
         <v>81</v>
@@ -7880,13 +7871,13 @@
         <v>48351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7892,13 @@
         <v>34133</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -7916,13 +7907,13 @@
         <v>14655</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>344</v>
+        <v>522</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -7931,13 +7922,13 @@
         <v>48787</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>527</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7943,13 @@
         <v>864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7973,7 +7964,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -7982,13 +7973,13 @@
         <v>864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8047,13 @@
         <v>3364</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -8071,13 +8062,13 @@
         <v>2637</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -8086,13 +8077,13 @@
         <v>6001</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8098,13 @@
         <v>15334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>542</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -8122,13 +8113,13 @@
         <v>10378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -8137,13 +8128,13 @@
         <v>25711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8149,13 @@
         <v>26554</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -8173,13 +8164,13 @@
         <v>9706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -8188,13 +8179,13 @@
         <v>36260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8200,13 @@
         <v>20913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -8224,13 +8215,13 @@
         <v>18669</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -8239,13 +8230,13 @@
         <v>39582</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8304,13 @@
         <v>596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -8328,13 +8319,13 @@
         <v>3987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -8343,13 +8334,13 @@
         <v>4583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8355,13 @@
         <v>28503</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -8379,13 +8370,13 @@
         <v>24554</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>578</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>579</v>
+        <v>307</v>
       </c>
       <c r="M15" s="7">
         <v>80</v>
@@ -8394,13 +8385,13 @@
         <v>53058</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>580</v>
+        <v>352</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8406,13 @@
         <v>18064</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -8430,13 +8421,13 @@
         <v>18527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -8445,13 +8436,13 @@
         <v>36591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8457,13 @@
         <v>12315</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -8481,13 +8472,13 @@
         <v>13164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>596</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -8496,13 +8487,13 @@
         <v>25479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,7 +8549,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8570,13 +8561,13 @@
         <v>5267</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -8585,13 +8576,13 @@
         <v>3871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>601</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -8600,13 +8591,13 @@
         <v>9138</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>607</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8612,13 @@
         <v>23795</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -8636,13 +8627,13 @@
         <v>27986</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -8651,13 +8642,13 @@
         <v>51781</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>612</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8663,13 @@
         <v>16796</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -8687,13 +8678,13 @@
         <v>22641</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -8702,13 +8693,13 @@
         <v>39437</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>620</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8714,13 @@
         <v>4722</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -8738,13 +8729,13 @@
         <v>4810</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -8753,13 +8744,13 @@
         <v>9532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>632</v>
+        <v>531</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,7 +8806,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8833,7 +8824,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8848,7 +8839,7 @@
         <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8863,7 +8854,7 @@
         <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8869,13 @@
         <v>685</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8893,13 +8884,13 @@
         <v>383</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -8908,13 +8899,13 @@
         <v>1068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>640</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8920,13 @@
         <v>9586</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -8944,13 +8935,13 @@
         <v>12549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -8959,13 +8950,13 @@
         <v>22135</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8971,13 @@
         <v>3415</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -8995,13 +8986,13 @@
         <v>1981</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>654</v>
+        <v>531</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -9010,13 +9001,13 @@
         <v>5397</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,7 +9063,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9084,13 +9075,13 @@
         <v>1443</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>660</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9105,7 +9096,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -9114,13 +9105,13 @@
         <v>1443</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9126,13 @@
         <v>5535</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>535</v>
+        <v>660</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>667</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -9150,13 +9141,13 @@
         <v>9498</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>286</v>
+        <v>664</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -9165,13 +9156,13 @@
         <v>15032</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>47</v>
+        <v>665</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9177,13 @@
         <v>18882</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -9201,13 +9192,13 @@
         <v>9062</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>676</v>
+        <v>426</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -9216,13 +9207,13 @@
         <v>27944</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,13 +9228,13 @@
         <v>14986</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H32" s="7">
         <v>27</v>
@@ -9252,13 +9243,13 @@
         <v>14310</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="M32" s="7">
         <v>49</v>
@@ -9267,13 +9258,13 @@
         <v>29296</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9329,7 +9320,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9341,13 +9332,13 @@
         <v>6179</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -9356,13 +9347,13 @@
         <v>3593</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>693</v>
+        <v>291</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -9371,13 +9362,13 @@
         <v>9772</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>409</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9383,13 @@
         <v>27662</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H35" s="7">
         <v>54</v>
@@ -9407,13 +9398,13 @@
         <v>33584</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>701</v>
+        <v>588</v>
       </c>
       <c r="M35" s="7">
         <v>83</v>
@@ -9422,13 +9413,13 @@
         <v>61246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9434,13 @@
         <v>48317</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H36" s="7">
         <v>95</v>
@@ -9458,13 +9449,13 @@
         <v>60933</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>709</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="M36" s="7">
         <v>150</v>
@@ -9473,13 +9464,13 @@
         <v>109249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,13 +9485,13 @@
         <v>19094</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -9509,13 +9500,13 @@
         <v>11839</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -9524,13 +9515,13 @@
         <v>30933</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>367</v>
+        <v>716</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9586,7 +9577,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9604,7 +9595,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -9613,13 +9604,13 @@
         <v>1429</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -9628,13 +9619,13 @@
         <v>1429</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9649,13 +9640,13 @@
         <v>4854</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>228</v>
+        <v>723</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -9664,13 +9655,13 @@
         <v>6204</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -9682,10 +9673,10 @@
         <v>729</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>730</v>
+        <v>535</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>731</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9700,13 +9691,13 @@
         <v>148390</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="H41" s="7">
         <v>175</v>
@@ -9715,13 +9706,13 @@
         <v>115681</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>735</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>737</v>
       </c>
       <c r="M41" s="7">
         <v>299</v>
@@ -9730,13 +9721,13 @@
         <v>264070</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9751,13 +9742,13 @@
         <v>44961</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>743</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -9766,13 +9757,13 @@
         <v>30829</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>746</v>
       </c>
       <c r="M42" s="7">
         <v>102</v>
@@ -9781,13 +9772,13 @@
         <v>75790</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9855,13 +9846,13 @@
         <v>18379</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>751</v>
+        <v>657</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H44" s="7">
         <v>29</v>
@@ -9870,13 +9861,13 @@
         <v>17036</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="M44" s="7">
         <v>53</v>
@@ -9885,13 +9876,13 @@
         <v>35415</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9906,13 +9897,13 @@
         <v>136283</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H45" s="7">
         <v>236</v>
@@ -9921,13 +9912,13 @@
         <v>131022</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="M45" s="7">
         <v>400</v>
@@ -9936,13 +9927,13 @@
         <v>267305</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9957,13 +9948,13 @@
         <v>320720</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H46" s="7">
         <v>444</v>
@@ -9972,13 +9963,13 @@
         <v>263753</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="M46" s="7">
         <v>793</v>
@@ -9987,13 +9978,13 @@
         <v>584474</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10008,13 +9999,13 @@
         <v>121269</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H47" s="7">
         <v>158</v>
@@ -10023,13 +10014,13 @@
         <v>95603</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="M47" s="7">
         <v>307</v>
@@ -10038,13 +10029,13 @@
         <v>216873</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10100,7 +10091,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
